--- a/src/test/testdaten_insert_gemeldete_krankenkasse/gemeldete Krankenkasse.xlsx
+++ b/src/test/testdaten_insert_gemeldete_krankenkasse/gemeldete Krankenkasse.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfr\PycharmProjects\Personalstammdatenbank\src\main\Sozialversicherungsdaten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfr\PycharmProjects\Personalstammdatenbank\src\test\testdaten_insert_gemeldete_krankenkasse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3128A9CE-5F79-450E-8BA7-6B243A1F66C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1302EB55-49BA-4586-847D-A9B15CD7CCD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="1860" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -389,7 +389,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/test/testdaten_insert_gemeldete_krankenkasse/gemeldete Krankenkasse.xlsx
+++ b/src/test/testdaten_insert_gemeldete_krankenkasse/gemeldete Krankenkasse.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfr\PycharmProjects\Personalstammdatenbank\src\test\testdaten_insert_gemeldete_krankenkasse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1302EB55-49BA-4586-847D-A9B15CD7CCD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80CA00A-E275-4455-BAA4-AFDD55FE7715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="1860" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35655" yWindow="2235" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,18 +33,9 @@
     <t>Wert</t>
   </si>
   <si>
-    <t>Mitglied gesetzliche Krankenkasse (Abkürzung)</t>
-  </si>
-  <si>
-    <t>Mitglied gesetzliche Krankenkasse (vollständiger Name)</t>
-  </si>
-  <si>
     <t>Eintragungsdatum</t>
   </si>
   <si>
-    <t>15.12.2023</t>
-  </si>
-  <si>
     <t>Umlage U1 in Prozent</t>
   </si>
   <si>
@@ -58,6 +49,15 @@
   </si>
   <si>
     <t>TK</t>
+  </si>
+  <si>
+    <t>Gemeldete Krankenkasse (vollständiger Name)</t>
+  </si>
+  <si>
+    <t>Gemeldete Krankenkasse (Abkürzung)</t>
+  </si>
+  <si>
+    <t>01.01.2024</t>
   </si>
 </sst>
 </file>
@@ -389,7 +389,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -408,23 +408,23 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3">
         <v>1.6</v>
@@ -432,7 +432,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3">
         <v>0.44</v>
@@ -440,7 +440,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3">
         <v>0.06</v>
@@ -448,10 +448,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
